--- a/2019_dkp/2019_11_26_dkp.xlsx
+++ b/2019_dkp/2019_11_26_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF531C6E-31B2-4C82-891E-8353D9E8265B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4307AA-EF49-4841-BB77-31AED3C78A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,10 +597,10 @@
   <dimension ref="B2:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
